--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf18-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf18-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +516,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G2">
-        <v>0.175392</v>
+        <v>10.71557066666667</v>
       </c>
       <c r="H2">
-        <v>0.526176</v>
+        <v>32.146712</v>
       </c>
       <c r="I2">
-        <v>0.01507461242125648</v>
+        <v>0.9375025736567436</v>
       </c>
       <c r="J2">
-        <v>0.01507461242125648</v>
+        <v>0.9375025736567436</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.5555316666666666</v>
+        <v>0.1817723333333333</v>
       </c>
       <c r="N2">
-        <v>1.666595</v>
+        <v>0.5453170000000001</v>
       </c>
       <c r="O2">
-        <v>0.01938483203642842</v>
+        <v>0.008966262009224884</v>
       </c>
       <c r="P2">
-        <v>0.01938483203642843</v>
+        <v>0.008966262009224884</v>
       </c>
       <c r="Q2">
-        <v>0.09743581007999999</v>
+        <v>1.947794283078222</v>
       </c>
       <c r="R2">
-        <v>0.8769222907199999</v>
+        <v>17.530148547704</v>
       </c>
       <c r="S2">
-        <v>0.0002922188298003145</v>
+        <v>0.008405893709729014</v>
       </c>
       <c r="T2">
-        <v>0.0002922188298003146</v>
+        <v>0.008405893709729014</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +578,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G3">
-        <v>0.175392</v>
+        <v>10.71557066666667</v>
       </c>
       <c r="H3">
-        <v>0.526176</v>
+        <v>32.146712</v>
       </c>
       <c r="I3">
-        <v>0.01507461242125648</v>
+        <v>0.9375025736567436</v>
       </c>
       <c r="J3">
-        <v>0.01507461242125648</v>
+        <v>0.9375025736567436</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.1817723333333333</v>
+        <v>20.09115</v>
       </c>
       <c r="N3">
-        <v>0.5453170000000001</v>
+        <v>60.27345</v>
       </c>
       <c r="O3">
-        <v>0.006342799811357313</v>
+        <v>0.9910337379907751</v>
       </c>
       <c r="P3">
-        <v>0.006342799811357313</v>
+        <v>0.9910337379907752</v>
       </c>
       <c r="Q3">
-        <v>0.031881413088</v>
+        <v>215.2881375996</v>
       </c>
       <c r="R3">
-        <v>0.286932717792</v>
+        <v>1937.5932383964</v>
       </c>
       <c r="S3">
-        <v>9.561524882183022E-05</v>
+        <v>0.9290966799470146</v>
       </c>
       <c r="T3">
-        <v>9.561524882183023E-05</v>
+        <v>0.9290966799470147</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.175392</v>
+        <v>0.71434</v>
       </c>
       <c r="H4">
-        <v>0.526176</v>
+        <v>2.14302</v>
       </c>
       <c r="I4">
-        <v>0.01507461242125648</v>
+        <v>0.06249742634325634</v>
       </c>
       <c r="J4">
-        <v>0.01507461242125648</v>
+        <v>0.06249742634325634</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>27.92075533333333</v>
+        <v>0.1817723333333333</v>
       </c>
       <c r="N4">
-        <v>83.762266</v>
+        <v>0.5453170000000001</v>
       </c>
       <c r="O4">
-        <v>0.9742723681522142</v>
+        <v>0.008966262009224884</v>
       </c>
       <c r="P4">
-        <v>0.9742723681522143</v>
+        <v>0.008966262009224884</v>
       </c>
       <c r="Q4">
-        <v>4.897077119424</v>
+        <v>0.1298472485933333</v>
       </c>
       <c r="R4">
-        <v>44.073694074816</v>
+        <v>1.16862523734</v>
       </c>
       <c r="S4">
-        <v>0.01468677834263434</v>
+        <v>0.0005603682994958698</v>
       </c>
       <c r="T4">
-        <v>0.01468677834263434</v>
+        <v>0.0005603682994958698</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,371 +702,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.71434</v>
+      </c>
+      <c r="H5">
+        <v>2.14302</v>
+      </c>
+      <c r="I5">
+        <v>0.06249742634325634</v>
+      </c>
+      <c r="J5">
+        <v>0.06249742634325634</v>
+      </c>
+      <c r="K5">
         <v>3</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="G5">
-        <v>10.71557066666667</v>
-      </c>
-      <c r="H5">
-        <v>32.146712</v>
-      </c>
-      <c r="I5">
-        <v>0.9209831387553875</v>
-      </c>
-      <c r="J5">
-        <v>0.9209831387553876</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.5555316666666666</v>
+        <v>20.09115</v>
       </c>
       <c r="N5">
-        <v>1.666595</v>
+        <v>60.27345</v>
       </c>
       <c r="O5">
-        <v>0.01938483203642842</v>
+        <v>0.9910337379907751</v>
       </c>
       <c r="P5">
-        <v>0.01938483203642843</v>
+        <v>0.9910337379907752</v>
       </c>
       <c r="Q5">
-        <v>5.952838831737777</v>
+        <v>14.351912091</v>
       </c>
       <c r="R5">
-        <v>53.57554948564</v>
+        <v>129.167208819</v>
       </c>
       <c r="S5">
-        <v>0.01785310345315584</v>
+        <v>0.06193705804376047</v>
       </c>
       <c r="T5">
-        <v>0.01785310345315584</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>10.71557066666667</v>
-      </c>
-      <c r="H6">
-        <v>32.146712</v>
-      </c>
-      <c r="I6">
-        <v>0.9209831387553875</v>
-      </c>
-      <c r="J6">
-        <v>0.9209831387553876</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.1817723333333333</v>
-      </c>
-      <c r="N6">
-        <v>0.5453170000000001</v>
-      </c>
-      <c r="O6">
-        <v>0.006342799811357313</v>
-      </c>
-      <c r="P6">
-        <v>0.006342799811357313</v>
-      </c>
-      <c r="Q6">
-        <v>1.947794283078222</v>
-      </c>
-      <c r="R6">
-        <v>17.530148547704</v>
-      </c>
-      <c r="S6">
-        <v>0.005841611678760937</v>
-      </c>
-      <c r="T6">
-        <v>0.005841611678760939</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>10.71557066666667</v>
-      </c>
-      <c r="H7">
-        <v>32.146712</v>
-      </c>
-      <c r="I7">
-        <v>0.9209831387553875</v>
-      </c>
-      <c r="J7">
-        <v>0.9209831387553876</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>27.92075533333333</v>
-      </c>
-      <c r="N7">
-        <v>83.762266</v>
-      </c>
-      <c r="O7">
-        <v>0.9742723681522142</v>
-      </c>
-      <c r="P7">
-        <v>0.9742723681522143</v>
-      </c>
-      <c r="Q7">
-        <v>299.1868268410435</v>
-      </c>
-      <c r="R7">
-        <v>2692.681441569392</v>
-      </c>
-      <c r="S7">
-        <v>0.8972884236234706</v>
-      </c>
-      <c r="T7">
-        <v>0.8972884236234708</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.7439633333333333</v>
-      </c>
-      <c r="H8">
-        <v>2.23189</v>
-      </c>
-      <c r="I8">
-        <v>0.06394224882335593</v>
-      </c>
-      <c r="J8">
-        <v>0.06394224882335593</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.5555316666666666</v>
-      </c>
-      <c r="N8">
-        <v>1.666595</v>
-      </c>
-      <c r="O8">
-        <v>0.01938483203642842</v>
-      </c>
-      <c r="P8">
-        <v>0.01938483203642843</v>
-      </c>
-      <c r="Q8">
-        <v>0.4132951905055555</v>
-      </c>
-      <c r="R8">
-        <v>3.71965671455</v>
-      </c>
-      <c r="S8">
-        <v>0.001239509753472268</v>
-      </c>
-      <c r="T8">
-        <v>0.001239509753472268</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.7439633333333333</v>
-      </c>
-      <c r="H9">
-        <v>2.23189</v>
-      </c>
-      <c r="I9">
-        <v>0.06394224882335593</v>
-      </c>
-      <c r="J9">
-        <v>0.06394224882335593</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.1817723333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.5453170000000001</v>
-      </c>
-      <c r="O9">
-        <v>0.006342799811357313</v>
-      </c>
-      <c r="P9">
-        <v>0.006342799811357313</v>
-      </c>
-      <c r="Q9">
-        <v>0.1352319510144444</v>
-      </c>
-      <c r="R9">
-        <v>1.21708755913</v>
-      </c>
-      <c r="S9">
-        <v>0.0004055728837745444</v>
-      </c>
-      <c r="T9">
-        <v>0.0004055728837745444</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.7439633333333333</v>
-      </c>
-      <c r="H10">
-        <v>2.23189</v>
-      </c>
-      <c r="I10">
-        <v>0.06394224882335593</v>
-      </c>
-      <c r="J10">
-        <v>0.06394224882335593</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>27.92075533333333</v>
-      </c>
-      <c r="N10">
-        <v>83.762266</v>
-      </c>
-      <c r="O10">
-        <v>0.9742723681522142</v>
-      </c>
-      <c r="P10">
-        <v>0.9742723681522143</v>
-      </c>
-      <c r="Q10">
-        <v>20.77201820697111</v>
-      </c>
-      <c r="R10">
-        <v>186.94816386274</v>
-      </c>
-      <c r="S10">
-        <v>0.06229716618610912</v>
-      </c>
-      <c r="T10">
-        <v>0.06229716618610912</v>
+        <v>0.06193705804376048</v>
       </c>
     </row>
   </sheetData>
